--- a/DB.xlsx
+++ b/DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\학원 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학원프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA42EBF-D5CA-4096-9601-6A2F4E9A0B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CF2A81-3C29-445F-8920-23EE5897ACAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5452EA78-F9CF-4924-AB73-13A308B8C969}"/>
+    <workbookView xWindow="396" yWindow="300" windowWidth="11724" windowHeight="8964" xr2:uid="{5452EA78-F9CF-4924-AB73-13A308B8C969}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="203">
   <si>
     <t>팀(논리)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -873,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,6 +905,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1223,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F199E4-88F1-478C-9FE5-67B2B014272F}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1629,6 +1632,12 @@
       <c r="D11" s="7">
         <v>2</v>
       </c>
+      <c r="E11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>51</v>
       </c>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\학원 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azzcom\Documents\GitHub\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA42EBF-D5CA-4096-9601-6A2F4E9A0B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC3DA8B-F1CB-46F3-9D23-693ACBD897CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5452EA78-F9CF-4924-AB73-13A308B8C969}"/>
+    <workbookView xWindow="19050" yWindow="3090" windowWidth="28800" windowHeight="15435" xr2:uid="{5452EA78-F9CF-4924-AB73-13A308B8C969}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="202">
   <si>
     <t>팀(논리)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,18 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emp_did</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_dnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_dsex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>emp_birth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,10 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emp_etell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>emp_cp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,14 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emp_dteam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_dgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>emp_unique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,10 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emp_power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>emp_hobby</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,20 +431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emp_join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_quaility1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_quaility2</t>
-  </si>
-  <si>
-    <t>emp_quaility3</t>
-  </si>
-  <si>
     <t>emp_languge1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,10 +454,6 @@
     <t>emp_award4</t>
   </si>
   <si>
-    <t>emp_dname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비상연락처비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -782,6 +736,50 @@
   </si>
   <si>
     <t>trainee_award4</t>
+  </si>
+  <si>
+    <t>emp_gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_tell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_teamcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_gradecode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_uniquedetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_license1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_license2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_license3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -831,7 +829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -867,13 +865,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -906,6 +915,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,28 +1236,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F199E4-88F1-478C-9FE5-67B2B014272F}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="17.8984375" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" customWidth="1"/>
-    <col min="7" max="8" width="17.59765625" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="12" width="17.69921875" customWidth="1"/>
-    <col min="13" max="13" width="8.69921875" customWidth="1"/>
+    <col min="11" max="12" width="17.75" customWidth="1"/>
+    <col min="13" max="13" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1303,22 +1318,22 @@
         <v>36</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1341,22 +1356,22 @@
         <v>33</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1379,22 +1394,22 @@
         <v>42</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1417,22 +1432,22 @@
         <v>38</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1455,22 +1470,22 @@
         <v>73</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1493,22 +1508,22 @@
         <v>76</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1531,24 +1546,24 @@
         <v>77</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>47</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B9" s="8">
         <v>700</v>
@@ -1569,22 +1584,22 @@
         <v>46</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1607,22 +1622,22 @@
         <v>48</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1633,16 +1648,16 @@
         <v>51</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1653,463 +1668,479 @@
         <v>35</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I14" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E15" s="6"/>
       <c r="F15" s="10" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>74</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>75</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>76</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>77</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>72</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>64</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>68</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="9:12" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>69</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="9:12" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I35" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>202</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I37" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
